--- a/案例7_清洗员工花名册/1 课程文件/员工花名册_待清洗.xlsx
+++ b/案例7_清洗员工花名册/1 课程文件/员工花名册_待清洗.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yixingzeng/Documents/0.workspace/60.my_course/ai-py-intro-course-c3/案例7_清洗员工花名册/1 课程文件/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6196CC0B-A43D-7147-B156-3F30BDAEEF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7277EDC-5CAE-4947-8BB8-94F1F599B5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="880" windowWidth="25180" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1040" yWindow="880" windowWidth="33300" windowHeight="20940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="135">
   <si>
     <t>姓名</t>
   </si>
@@ -419,27 +419,23 @@
   </si>
   <si>
     <t>63012120000202841x</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>21102119940916081x</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54022120010916483x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -452,6 +448,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -489,10 +500,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -801,7 +815,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -816,7 +830,7 @@
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -842,574 +856,574 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" ht="17">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>18755368538</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+    <row r="3" spans="1:8" ht="17">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>18693509785</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
+    <row r="4" spans="1:8" ht="17">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>18566982171</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
+    <row r="5" spans="1:8" ht="17">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>18238441475</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
+    <row r="6" spans="1:8" ht="17">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>18183164444</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="17">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>18181005346</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
+    <row r="8" spans="1:8" ht="17">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>15607690837</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
+    <row r="9" spans="1:8" ht="17">
+      <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>15546741119</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
+    <row r="10" spans="1:8" ht="17">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>15362634494</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
+    <row r="11" spans="1:8" ht="17">
+      <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>15178298395</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
+    <row r="12" spans="1:8" ht="17">
+      <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>14531099988</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
+    <row r="13" spans="1:8" ht="17">
+      <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>13993663668</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
+    <row r="14" spans="1:8" ht="17">
+      <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>13859175480</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="17">
+      <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>13743144964</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
+    <row r="16" spans="1:8" ht="17">
+      <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>13733019279</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
+    <row r="17" spans="1:8" ht="17">
+      <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>13525941290</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
+    <row r="18" spans="1:8" ht="17">
+      <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>13518966652</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
+    <row r="19" spans="1:8" ht="17">
+      <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>13489902420</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
+    <row r="20" spans="1:8" ht="17">
+      <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>13346280824</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
+    <row r="21" spans="1:8" ht="17">
+      <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>13137996644</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
+    <row r="22" spans="1:8" ht="17">
+      <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>15178298395</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
+    <row r="23" spans="1:8" ht="17">
+      <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>18755368538</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H23" t="s">
-        <v>114</v>
-      </c>
+      <c r="H23" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/案例7_清洗员工花名册/1 课程文件/员工花名册_待清洗.xlsx
+++ b/案例7_清洗员工花名册/1 课程文件/员工花名册_待清洗.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yixingzeng/Documents/0.workspace/60.my_course/ai-py-intro-course-c3/案例7_清洗员工花名册/1 课程文件/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7277EDC-5CAE-4947-8BB8-94F1F599B5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EA1F89-8AC7-2B49-9102-F1756A7D346F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="880" windowWidth="33300" windowHeight="20940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="134">
   <si>
     <t>姓名</t>
   </si>
@@ -370,16 +370,7 @@
     <t>1971-09-27</t>
   </si>
   <si>
-    <t>2000-02-02</t>
-  </si>
-  <si>
-    <t>2001-09-04</t>
-  </si>
-  <si>
     <t>1993-08-08</t>
-  </si>
-  <si>
-    <t>1970-03-08</t>
   </si>
   <si>
     <t>1994-09-28</t>
@@ -427,6 +418,14 @@
   </si>
   <si>
     <t>54022120010916483x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.04.2001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1970年03月08日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,12 +499,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -815,7 +820,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -827,7 +832,7 @@
     <col min="5" max="5" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17">
@@ -913,7 +918,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>48</v>
@@ -930,8 +935,8 @@
       <c r="G4" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>116</v>
+      <c r="H4" s="3">
+        <v>36558</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17">
@@ -957,7 +962,7 @@
         <v>97</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17">
@@ -1007,7 +1012,7 @@
         <v>99</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17">
@@ -1032,8 +1037,8 @@
       <c r="G8" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>119</v>
+      <c r="H8" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17">
@@ -1059,7 +1064,7 @@
         <v>101</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17">
@@ -1085,7 +1090,7 @@
         <v>102</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17">
@@ -1111,7 +1116,7 @@
         <v>103</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17">
@@ -1137,7 +1142,7 @@
         <v>104</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17">
@@ -1163,7 +1168,7 @@
         <v>105</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17">
@@ -1213,7 +1218,7 @@
         <v>107</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17">
@@ -1239,7 +1244,7 @@
         <v>108</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="17">
@@ -1265,7 +1270,7 @@
         <v>109</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="17">
@@ -1273,7 +1278,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>49</v>
@@ -1291,7 +1296,7 @@
         <v>110</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17">
@@ -1317,7 +1322,7 @@
         <v>111</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="17">
@@ -1343,7 +1348,7 @@
         <v>112</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="17">
@@ -1369,7 +1374,7 @@
         <v>113</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="17">
@@ -1395,7 +1400,7 @@
         <v>103</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="17">
@@ -1403,7 +1408,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>46</v>
